--- a/output/kitti_models/pointpillar/pointpillar_kitti_more_metrics_stat.xlsx
+++ b/output/kitti_models/pointpillar/pointpillar_kitti_more_metrics_stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Projects\BeamReduction\OpenPCDet\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Research\Projects\BeamReduction\OpenPCDet\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A8BFE8AA-9230-4B40-BB5B-A0C538EC1D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA7D0C-878A-470D-9963-C3B1B8D409BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B4C40D1-2917-4104-B8B9-824EC3FCD6E8}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{7B4C40D1-2917-4104-B8B9-824EC3FCD6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="pointpillar_kitti_more_metrics_" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -796,7 +796,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -822,18 +822,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pointpillar_kitti_more_metrics_!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>recall/rcnn_0.3_mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Recall/RCNN_0.3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -842,7 +834,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -927,18 +932,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pointpillar_kitti_more_metrics_!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>recall/rcnn_0.5_mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Recall/RCNN_0.5</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -947,7 +944,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1032,18 +1042,10 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>pointpillar_kitti_more_metrics_!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>recall/rcnn_0.7_mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Recall/RCNN_0.7</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1052,7 +1054,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1141,6 +1156,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1037114864"/>
         <c:axId val="1037120624"/>
@@ -1152,6 +1168,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1159,7 +1189,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1173,13 +1203,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># </a:t>
+                  <a:t># Beams Removed</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Beams Removed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1196,7 +1221,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1234,7 +1259,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1263,20 +1288,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1284,7 +1295,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1316,7 +1327,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1338,8 +1349,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1376,7 +1393,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1408,6 +1425,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1415,11 +1433,10 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2188,6 +2205,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2195,7 +2213,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2968,6 +2985,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2975,7 +2993,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3748,6 +3765,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3755,7 +3773,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4419,6 +4436,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4426,7 +4444,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5178,6 +5195,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5185,7 +5203,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5241,7 +5258,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5254,35 +5271,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>AOS/Moderate</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>AOS/Moderate_R40</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>_R40</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5299,7 +5290,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5336,7 +5327,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5345,7 +5336,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5441,7 +5445,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5450,7 +5454,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5546,7 +5563,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -5555,7 +5572,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -5644,6 +5674,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1035837184"/>
         <c:axId val="1035833824"/>
@@ -5655,6 +5686,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5662,7 +5707,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5675,35 +5720,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t># </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Beams Removed</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Beams Removed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5720,7 +5739,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5758,7 +5777,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5787,20 +5806,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5808,7 +5813,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5821,35 +5826,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>AOS/Moderate</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AOS/Moderate_R40</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>_R40</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5866,7 +5845,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5888,8 +5867,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5925,39 +5910,9 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5965,11 +5920,10 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6738,6 +6692,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6745,7 +6700,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7497,6 +7451,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7504,7 +7459,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7560,7 +7514,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7573,35 +7527,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>3</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>3D/Moderate_R40</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>D/Moderate_R40</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7618,7 +7546,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7655,7 +7583,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -7664,7 +7592,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7760,7 +7701,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -7769,7 +7710,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7865,7 +7819,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -7874,7 +7828,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7963,6 +7930,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1063830096"/>
         <c:axId val="1063830576"/>
@@ -7974,6 +7942,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -7981,7 +7963,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7994,35 +7976,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t># </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Beams Removed</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Beams Removed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8039,7 +7995,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8077,7 +8033,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8106,20 +8062,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -8127,7 +8069,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8140,35 +8082,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>3</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>3D/Moderate_R40</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>D/Moderate_R40</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8185,7 +8101,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8207,8 +8123,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8244,39 +8166,9 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8284,11 +8176,10 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -9057,6 +8948,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9064,7 +8956,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9830,6 +9721,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9837,7 +9729,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10610,6 +10501,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10617,7 +10509,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11173,6 +11064,527 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11688,7 +12100,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12204,7 +12616,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12720,7 +13132,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13236,7 +13648,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13752,7 +14164,528 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14268,7 +15201,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14784,8 +15717,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14796,7 +15729,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -14819,18 +15752,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -14842,7 +15775,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -14850,11 +15783,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -14886,12 +15819,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -14901,12 +15834,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -14918,13 +15851,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -14936,12 +15869,12 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -14951,18 +15884,19 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -14984,15 +15918,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -15007,10 +15939,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -15018,67 +15986,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -15091,54 +16120,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -15148,8 +16140,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -15159,66 +16151,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -15227,14 +16160,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -15248,7 +16181,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -15264,8 +16197,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -15281,6 +16214,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15288,1046 +16232,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18673,15 +18579,15 @@
   <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AX1" activeCellId="2" sqref="Z1:Z10 AL1:AL10 AX1:AX10"/>
+      <selection pane="bottomRight" activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18833,7 +18739,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18982,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4</v>
       </c>
@@ -19134,7 +19040,7 @@
         <v>1.7363095968045399</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
@@ -19286,7 +19192,7 @@
         <v>3.30587949921168</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>12</v>
       </c>
@@ -19438,7 +19344,7 @@
         <v>4.0739282679011399</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>16</v>
       </c>
@@ -19590,7 +19496,7 @@
         <v>5.1693302423826699</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -19742,7 +19648,7 @@
         <v>5.5512572972725298</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>24</v>
       </c>
@@ -19894,7 +19800,7 @@
         <v>6.43298173729002</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>28</v>
       </c>
@@ -20046,7 +19952,7 @@
         <v>6.6712522476616201</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>32</v>
       </c>
@@ -20198,7 +20104,7 @@
         <v>8.1139494442726896</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>36</v>
       </c>
@@ -20350,7 +20256,7 @@
         <v>7.6357232611733901</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>40</v>
       </c>
